--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/78_Van_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/78_Van_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C60B8C6-F09F-4970-9C44-84E5BB6B1F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19841C59-A456-4935-8971-B98505695744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{63392B07-6138-4A35-8C4D-D9B5A8D862EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="699" xr2:uid="{8803A8A1-C855-4BA2-BE49-09399E25B16C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -969,14 +969,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{59C08380-0212-4576-828B-38F9C48C59D6}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{92673F21-FDDC-4CE6-B989-C33D3F9A96B4}"/>
-    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{1A5C7517-AAC5-4A24-96BA-B4851A8FF244}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{AC4CF23E-E043-4560-9C94-51023F90C22E}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4676BEF5-6BBC-416C-8B7F-4969ABCB411B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B6DAB73F-FC95-4DD2-9B39-9730F11A29DC}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{0B8CDB52-168E-4F39-AD11-4373423D8499}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{1B35C20D-BEBE-4719-8B15-28E48A2F956D}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{73CED3E9-FAB0-4B7C-A958-9132C21B385C}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3321D8B5-C747-4D6B-BEB7-6EBB29D3B567}"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{1CCBCFE2-3DB3-4375-ABC4-69F7DB8796FB}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{E3EA53FC-1494-414F-B7DD-22A772351DF7}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{BD99D1F2-C7DA-40B4-8581-274281C99070}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{8845AD22-0497-4757-844A-F97196438CA7}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{78B06623-C1CF-48EA-B846-65B06D70E8BD}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0F22E1EE-5705-43EE-8966-3B9C67C4E256}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1346,7 +1346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366E6FB8-3B0C-440D-9D0C-049D25BE5D2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41B41DA1-4433-4B64-BED6-3C29A6A0CAC8}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2622,7 +2622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A4DE8D-B382-4907-AFC1-34295D3A67BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8495212A-A409-46A1-BBAC-1D616C86A9C0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3865,7 +3865,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CEC77F-37F1-4B8A-B312-EC36B86F4D14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FBEDACC-D451-47A1-94B5-FA7078BAE5AE}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5102,7 +5102,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9318A09-28C5-4B07-85DD-52578598B68B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB293BB2-6830-48D1-B1B4-8105E04FE2C0}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6319,7 +6319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBD62D0-F5A7-42E8-A759-53B305BCFF98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DECB1B-E384-486A-877B-ECEF39E45F41}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7596,7 +7596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6079F1D9-E5B4-4371-B3A6-E1AAA82A6F95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D836399-8F8C-43ED-9474-136D08DC8CB9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8873,7 +8873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C0A695-8EAB-4476-AB84-D827C7A9F053}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D84A93-C26D-4A81-BAD2-02205B37ABB0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10150,7 +10150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F864D-53F2-4368-A81A-DB7FAFBA4AF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1B8441E-62FE-4B4D-80F0-D8B9350DFB31}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11427,7 +11427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C0E0489-9B66-4B8E-BFDC-A03AB134B18E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211C0341-4CE2-4883-BEDD-DB94431035D8}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12702,7 +12702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0750985-DDD9-435D-9682-ECF810BC6AD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFAA773F-11C0-49AE-95CC-07AB23BD9954}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13965,7 +13965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB6485C-5FB6-4202-858F-7174B98577CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F389E933-1FB2-48E2-9D61-26ED2CEBF22B}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15228,7 +15228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313237E8-422B-4AC2-A9B7-32E409F6435B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{010B4248-E999-458D-BAD3-C953C3E86D8F}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
